--- a/results/mnist_training/results_rehearsal_0.1_mnist.xlsx
+++ b/results/mnist_training/results_rehearsal_0.1_mnist.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,13 +464,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.7990258237719536</v>
+        <v>0.83366411815087</v>
       </c>
       <c r="D3">
-        <v>0.3030838668346405</v>
+        <v>0.2961230874061584</v>
       </c>
       <c r="E3">
-        <v>49.82</v>
+        <v>51.17</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -479,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.0008490436434745788</v>
+        <v>0.0008832368738949299</v>
       </c>
       <c r="J3">
-        <v>94.98999999999999</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -493,13 +493,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.3470294053355853</v>
+        <v>0.3475900428990523</v>
       </c>
       <c r="D4">
-        <v>0.2605430483818054</v>
+        <v>0.2532010078430176</v>
       </c>
       <c r="E4">
-        <v>50.75</v>
+        <v>52.195</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -508,10 +508,10 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.02227762660980225</v>
+        <v>0.01918809602260589</v>
       </c>
       <c r="J4">
-        <v>4.65</v>
+        <v>7.54</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -522,13 +522,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.2731571690738201</v>
+        <v>0.2724788501858711</v>
       </c>
       <c r="D5">
-        <v>0.2344865202903748</v>
+        <v>0.2245196402072906</v>
       </c>
       <c r="E5">
-        <v>50.485</v>
+        <v>52.055</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -537,10 +537,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0.0005524200972169637</v>
+        <v>0.0005533743251115084</v>
       </c>
       <c r="J5">
-        <v>96.59999999999999</v>
+        <v>96.64</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -551,13 +551,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.2416817585627238</v>
+        <v>0.2398992054661115</v>
       </c>
       <c r="D6">
-        <v>0.2446888387203217</v>
+        <v>0.2346620559692383</v>
       </c>
       <c r="E6">
-        <v>51.375</v>
+        <v>52.41500000000001</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -566,10 +566,10 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0.02209145927429199</v>
+        <v>0.01890915579795837</v>
       </c>
       <c r="J6">
-        <v>4.9</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -580,13 +580,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.2180351854115725</v>
+        <v>0.2161293674260378</v>
       </c>
       <c r="D7">
-        <v>0.2425009608268738</v>
+        <v>0.2007807493209839</v>
       </c>
       <c r="E7">
-        <v>52.485</v>
+        <v>52.90000000000001</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -595,10 +595,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0.0004534295059740544</v>
+        <v>0.0004351334702223539</v>
       </c>
       <c r="J7">
-        <v>97.26000000000001</v>
+        <v>97.31999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -609,13 +609,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.2058513497809569</v>
+        <v>0.1993684710065524</v>
       </c>
       <c r="D8">
-        <v>0.2244568765163422</v>
+        <v>0.2025469839572906</v>
       </c>
       <c r="E8">
-        <v>54.665</v>
+        <v>53.175</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -624,10 +624,10 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>0.02312932553291321</v>
+        <v>0.01877592058181763</v>
       </c>
       <c r="J8">
-        <v>3.71</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -638,13 +638,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.1896929805104931</v>
+        <v>0.1865598649779956</v>
       </c>
       <c r="D9">
-        <v>0.2347578257322311</v>
+        <v>0.2126786410808563</v>
       </c>
       <c r="E9">
-        <v>53.47</v>
+        <v>53</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -653,10 +653,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>0.0003794828295707703</v>
+        <v>0.0003881315475329757</v>
       </c>
       <c r="J9">
-        <v>97.59</v>
+        <v>97.65000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -667,13 +667,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.1810190706451734</v>
+        <v>0.1806096432109674</v>
       </c>
       <c r="D10">
-        <v>0.2108943313360214</v>
+        <v>0.1958466768264771</v>
       </c>
       <c r="E10">
-        <v>53.805</v>
+        <v>53.265</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -682,10 +682,10 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>0.02242681837081909</v>
+        <v>0.01910859463214874</v>
       </c>
       <c r="J10">
-        <v>5.16</v>
+        <v>7.18</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -696,13 +696,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.1748748890310526</v>
+        <v>0.1695900663236777</v>
       </c>
       <c r="D11">
-        <v>0.2469840943813324</v>
+        <v>0.2180600017309189</v>
       </c>
       <c r="E11">
-        <v>54.955</v>
+        <v>53.75</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -711,10 +711,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>0.0003244296494871378</v>
+        <v>0.000332338565774262</v>
       </c>
       <c r="J11">
-        <v>97.98</v>
+        <v>97.87</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -725,13 +725,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.1646092451115449</v>
+        <v>0.1643292990202705</v>
       </c>
       <c r="D12">
-        <v>0.2395987510681152</v>
+        <v>0.1993485689163208</v>
       </c>
       <c r="E12">
-        <v>53.645</v>
+        <v>53.215</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -740,10 +740,10 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>0.02154545958042145</v>
+        <v>0.01879266340732574</v>
       </c>
       <c r="J12">
-        <v>6.99</v>
+        <v>7.93</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -754,13 +754,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.1592988431453705</v>
+        <v>0.158026041003565</v>
       </c>
       <c r="D13">
-        <v>0.2341521829366684</v>
+        <v>0.2118205279111862</v>
       </c>
       <c r="E13">
-        <v>53.625</v>
+        <v>53.81</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -769,10 +769,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>0.0003312329201027751</v>
+        <v>0.0003211628992110491</v>
       </c>
       <c r="J13">
-        <v>98.02</v>
+        <v>97.95</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -783,13 +783,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.1525771288822095</v>
+        <v>0.1537901553511619</v>
       </c>
       <c r="D14">
-        <v>0.2466638684272766</v>
+        <v>0.184139609336853</v>
       </c>
       <c r="E14">
-        <v>54.08000000000001</v>
+        <v>53.415</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -798,10 +798,10 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>0.02002062342166901</v>
+        <v>0.01872894988059998</v>
       </c>
       <c r="J14">
-        <v>11.31</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -812,13 +812,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.1497838823621472</v>
+        <v>0.1514279207835595</v>
       </c>
       <c r="D15">
-        <v>0.2377316504716873</v>
+        <v>0.1920384615659714</v>
       </c>
       <c r="E15">
-        <v>53.7</v>
+        <v>54.275</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -827,10 +827,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>0.0002981866947375238</v>
+        <v>0.000293922324012965</v>
       </c>
       <c r="J15">
-        <v>98.19</v>
+        <v>98.18000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -841,13 +841,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.1659528719633818</v>
+        <v>0.1467096648116906</v>
       </c>
       <c r="D16">
-        <v>0.2343534529209137</v>
+        <v>0.2018844038248062</v>
       </c>
       <c r="E16">
-        <v>53.505</v>
+        <v>55.025</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -856,10 +856,10 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>0.02111187715530395</v>
+        <v>0.01936259355545044</v>
       </c>
       <c r="J16">
-        <v>8.75</v>
+        <v>7.82</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -870,13 +870,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.1603469229613741</v>
+        <v>0.1397283542280396</v>
       </c>
       <c r="D17">
-        <v>0.2346636205911636</v>
+        <v>0.1994474083185196</v>
       </c>
       <c r="E17">
-        <v>54.23</v>
+        <v>53.85</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -885,10 +885,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>0.0002717286484315992</v>
+        <v>0.0002771951167844236</v>
       </c>
       <c r="J17">
-        <v>98.17</v>
+        <v>98.27</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -899,13 +899,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.158645328010122</v>
+        <v>0.1385015423844258</v>
       </c>
       <c r="D18">
-        <v>0.2399879992008209</v>
+        <v>0.1899675726890564</v>
       </c>
       <c r="E18">
-        <v>54.33</v>
+        <v>54.75</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -914,10 +914,10 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>0.02030799679756165</v>
+        <v>0.0179190511226654</v>
       </c>
       <c r="J18">
-        <v>9.44</v>
+        <v>8.26</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -928,13 +928,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.157329587067167</v>
+        <v>0.1384405295054118</v>
       </c>
       <c r="D19">
-        <v>0.2378399968147278</v>
+        <v>0.2220811694860458</v>
       </c>
       <c r="E19">
-        <v>55.165</v>
+        <v>54.895</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -943,10 +943,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>0.0002525783251971006</v>
+        <v>0.0002711136132478714</v>
       </c>
       <c r="J19">
-        <v>98.42</v>
+        <v>98.26000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -957,13 +957,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.1507138756786784</v>
+        <v>0.1421875220909715</v>
       </c>
       <c r="D20">
-        <v>0.2266944497823715</v>
+        <v>0.2017313987016678</v>
       </c>
       <c r="E20">
-        <v>54.685</v>
+        <v>54.11</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -972,10 +972,10 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>0.02209050736427307</v>
+        <v>0.01858021166324616</v>
       </c>
       <c r="J20">
-        <v>11.49</v>
+        <v>9.24</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -986,13 +986,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.1665715924650431</v>
+        <v>0.1393491131688158</v>
       </c>
       <c r="D21">
-        <v>0.2257167994976044</v>
+        <v>0.2032420784235001</v>
       </c>
       <c r="E21">
-        <v>54.09</v>
+        <v>54.325</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1001,7 +1001,7 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>0.0002533372221514583</v>
+        <v>0.0002497794688679278</v>
       </c>
       <c r="J21">
         <v>98.39</v>
@@ -1015,13 +1015,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.1649211924895644</v>
+        <v>0.1347818212086956</v>
       </c>
       <c r="D22">
-        <v>0.2311003059148788</v>
+        <v>0.2018085122108459</v>
       </c>
       <c r="E22">
-        <v>53.92</v>
+        <v>53.825</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -1030,10 +1030,10 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.02226155078411102</v>
+        <v>0.01912227818965912</v>
       </c>
       <c r="J22">
-        <v>8.9</v>
+        <v>8.039999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1044,13 +1044,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.1600098665927847</v>
+        <v>0.1358691381538908</v>
       </c>
       <c r="D23">
-        <v>0.2329384833574295</v>
+        <v>0.204468846321106</v>
       </c>
       <c r="E23">
-        <v>53.96</v>
+        <v>54.335</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1059,10 +1059,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>0.0002438586223870516</v>
+        <v>0.0002404337197542191</v>
       </c>
       <c r="J23">
-        <v>98.34999999999999</v>
+        <v>98.48</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1073,13 +1073,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.1586183204129338</v>
+        <v>0.1321205622578661</v>
       </c>
       <c r="D24">
-        <v>0.2333556413650513</v>
+        <v>0.1996620297431946</v>
       </c>
       <c r="E24">
-        <v>53.925</v>
+        <v>54.015</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -1088,10 +1088,10 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>0.0212064521074295</v>
+        <v>0.01969053082466125</v>
       </c>
       <c r="J24">
-        <v>8.9</v>
+        <v>9.140000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1102,13 +1102,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.1595131209368507</v>
+        <v>0.1467263685291012</v>
       </c>
       <c r="D25">
-        <v>0.2349532544612885</v>
+        <v>0.1963598430156708</v>
       </c>
       <c r="E25">
-        <v>53.595</v>
+        <v>54.015</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1117,10 +1117,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>0.0002382080959156156</v>
+        <v>0.0002269787795841694</v>
       </c>
       <c r="J25">
-        <v>98.51000000000001</v>
+        <v>98.56</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1131,13 +1131,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.172576996833086</v>
+        <v>0.1441576580703259</v>
       </c>
       <c r="D26">
-        <v>0.2157304137945175</v>
+        <v>0.1969156861305237</v>
       </c>
       <c r="E26">
-        <v>53.935</v>
+        <v>53.995</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -1146,10 +1146,10 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>0.02186868438720703</v>
+        <v>0.01911137869358063</v>
       </c>
       <c r="J26">
-        <v>9.65</v>
+        <v>8.27</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1160,13 +1160,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.1689071222270528</v>
+        <v>0.1391352682188153</v>
       </c>
       <c r="D27">
-        <v>0.2200261056423187</v>
+        <v>0.2000817507505417</v>
       </c>
       <c r="E27">
-        <v>53.99</v>
+        <v>54.02</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1175,10 +1175,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>0.0002194677710998803</v>
+        <v>0.0002237416872754693</v>
       </c>
       <c r="J27">
-        <v>98.56999999999999</v>
+        <v>98.55</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1189,13 +1189,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.1683182526628176</v>
+        <v>0.1390387624502182</v>
       </c>
       <c r="D28">
-        <v>0.2222633212804794</v>
+        <v>0.2020395994186401</v>
       </c>
       <c r="E28">
-        <v>54.03</v>
+        <v>54.055</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1204,10 +1204,10 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>0.0218979229927063</v>
+        <v>0.01963549246788025</v>
       </c>
       <c r="J28">
-        <v>8.83</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1218,13 +1218,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.1658263835559289</v>
+        <v>0.1374801910544435</v>
       </c>
       <c r="D29">
-        <v>0.224500983953476</v>
+        <v>0.2017029970884323</v>
       </c>
       <c r="E29">
-        <v>54.05</v>
+        <v>54.3</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1233,10 +1233,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>0.0002618879564106465</v>
+        <v>0.0002195890158880502</v>
       </c>
       <c r="J29">
-        <v>98.29000000000001</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1247,13 +1247,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.1648578136165937</v>
+        <v>0.1476906467601657</v>
       </c>
       <c r="D30">
-        <v>0.2259564995765686</v>
+        <v>0.1878333538770676</v>
       </c>
       <c r="E30">
-        <v>53.92</v>
+        <v>53.69</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1262,10 +1262,10 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>0.02170882172584534</v>
+        <v>0.01806225214004517</v>
       </c>
       <c r="J30">
-        <v>8.720000000000001</v>
+        <v>11.45</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1276,13 +1276,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.1748078820109367</v>
+        <v>0.1435874733080467</v>
       </c>
       <c r="D31">
-        <v>0.2119932621717453</v>
+        <v>0.190592348575592</v>
       </c>
       <c r="E31">
-        <v>53.81</v>
+        <v>53.89</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1291,10 +1291,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>0.0002607527716550976</v>
+        <v>0.0002144247133284807</v>
       </c>
       <c r="J31">
-        <v>98.25</v>
+        <v>98.62</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1305,13 +1305,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.1700607946515083</v>
+        <v>0.1431474946563442</v>
       </c>
       <c r="D32">
-        <v>0.2130163908004761</v>
+        <v>0.1926739662885666</v>
       </c>
       <c r="E32">
-        <v>53.88</v>
+        <v>53.98</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -1320,10 +1320,10 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>0.02179404940605164</v>
+        <v>0.01971937446594238</v>
       </c>
       <c r="J32">
-        <v>10.21</v>
+        <v>9.08</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1334,13 +1334,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.1705325837681691</v>
+        <v>0.1438591668382287</v>
       </c>
       <c r="D33">
-        <v>0.2140413224697113</v>
+        <v>0.194743275642395</v>
       </c>
       <c r="E33">
-        <v>53.92</v>
+        <v>54.015</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1349,10 +1349,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>0.0002525985397398472</v>
+        <v>0.0002108457918511704</v>
       </c>
       <c r="J33">
-        <v>98.36</v>
+        <v>98.67</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1363,13 +1363,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.1694677257786195</v>
+        <v>0.1425006771584352</v>
       </c>
       <c r="D34">
-        <v>0.2148848921060562</v>
+        <v>0.1959668546915054</v>
       </c>
       <c r="E34">
-        <v>53.95500000000001</v>
+        <v>54.08</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -1378,10 +1378,10 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>0.02168025171756744</v>
+        <v>0.01992555401325226</v>
       </c>
       <c r="J34">
-        <v>10.3</v>
+        <v>10.83</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1392,13 +1392,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.1685449984421333</v>
+        <v>0.1508075373868148</v>
       </c>
       <c r="D35">
-        <v>0.2159463763237</v>
+        <v>0.1850415617227554</v>
       </c>
       <c r="E35">
-        <v>54.03</v>
+        <v>53.515</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1407,13 +1407,28 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>0.0002481789419427514</v>
+        <v>0.0002036282246466726</v>
       </c>
       <c r="J35">
-        <v>98.31999999999999</v>
+        <v>98.62</v>
       </c>
     </row>
     <row r="36" spans="1:10">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.1477055223410328</v>
+      </c>
+      <c r="D36">
+        <v>0.1858876794576645</v>
+      </c>
+      <c r="E36">
+        <v>53.575</v>
+      </c>
       <c r="G36">
         <v>2</v>
       </c>
@@ -1421,13 +1436,28 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>0.02178534274101257</v>
+        <v>0.01893990197181702</v>
       </c>
       <c r="J36">
-        <v>12.01</v>
+        <v>11.17</v>
       </c>
     </row>
     <row r="37" spans="1:10">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.1476750626663367</v>
+      </c>
+      <c r="D37">
+        <v>0.186876505613327</v>
+      </c>
+      <c r="E37">
+        <v>53.63</v>
+      </c>
       <c r="G37">
         <v>1</v>
       </c>
@@ -1435,13 +1465,28 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>0.0002419091795571148</v>
+        <v>0.0002183383535593748</v>
       </c>
       <c r="J37">
-        <v>98.36</v>
+        <v>98.59</v>
       </c>
     </row>
     <row r="38" spans="1:10">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.1467781648784876</v>
+      </c>
+      <c r="D38">
+        <v>0.1876824945211411</v>
+      </c>
+      <c r="E38">
+        <v>53.65</v>
+      </c>
       <c r="G38">
         <v>2</v>
       </c>
@@ -1449,13 +1494,28 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>0.02200708484649658</v>
+        <v>0.01921083173751831</v>
       </c>
       <c r="J38">
-        <v>11.01</v>
+        <v>9.630000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:10">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>0.1429326536258062</v>
+      </c>
+      <c r="D39">
+        <v>0.1884423643350601</v>
+      </c>
+      <c r="E39">
+        <v>53.69</v>
+      </c>
       <c r="G39">
         <v>1</v>
       </c>
@@ -1463,10 +1523,10 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>0.0002635035237297416</v>
+        <v>0.0002097637594677508</v>
       </c>
       <c r="J39">
-        <v>98.28</v>
+        <v>98.58</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1477,10 +1537,10 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>0.02111059381961822</v>
+        <v>0.01908455865383148</v>
       </c>
       <c r="J40">
-        <v>9.9</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1491,10 +1551,10 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>0.0002596961872652173</v>
+        <v>0.0002138353390619159</v>
       </c>
       <c r="J41">
-        <v>98.27</v>
+        <v>98.58</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1505,10 +1565,10 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>0.02140636594295502</v>
+        <v>0.01950967695713043</v>
       </c>
       <c r="J42">
-        <v>9.57</v>
+        <v>9.07</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1519,10 +1579,10 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>0.000259733422473073</v>
+        <v>0.0002100809939671308</v>
       </c>
       <c r="J43">
-        <v>98.28</v>
+        <v>98.65000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1533,10 +1593,10 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>0.02167469954490662</v>
+        <v>0.01932217357158661</v>
       </c>
       <c r="J44">
-        <v>9.640000000000001</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1547,10 +1607,10 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>0.0002565495599061251</v>
+        <v>0.0002021034613251686</v>
       </c>
       <c r="J45">
-        <v>98.33</v>
+        <v>98.66</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1561,10 +1621,10 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>0.02188235237598419</v>
+        <v>0.01923168313503265</v>
       </c>
       <c r="J46">
-        <v>9.52</v>
+        <v>9.369999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1575,10 +1635,10 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>0.0002553560739383102</v>
+        <v>0.0002216702820267528</v>
       </c>
       <c r="J47">
-        <v>98.34999999999999</v>
+        <v>98.56</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1589,10 +1649,10 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>0.02173405294418335</v>
+        <v>0.01902679867744446</v>
       </c>
       <c r="J48">
-        <v>8.84</v>
+        <v>9.470000000000001</v>
       </c>
     </row>
     <row r="49" spans="7:10">
@@ -1603,10 +1663,10 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>0.0002677598694339395</v>
+        <v>0.0002194205032661557</v>
       </c>
       <c r="J49">
-        <v>98.23999999999999</v>
+        <v>98.56999999999999</v>
       </c>
     </row>
     <row r="50" spans="7:10">
@@ -1617,10 +1677,10 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>0.02050991332530975</v>
+        <v>0.0190953141450882</v>
       </c>
       <c r="J50">
-        <v>9.630000000000001</v>
+        <v>9.42</v>
       </c>
     </row>
     <row r="51" spans="7:10">
@@ -1631,10 +1691,10 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>0.0002656888837460429</v>
+        <v>0.0002171814659610391</v>
       </c>
       <c r="J51">
-        <v>98.22</v>
+        <v>98.61</v>
       </c>
     </row>
     <row r="52" spans="7:10">
@@ -1645,10 +1705,10 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>0.0206448543548584</v>
+        <v>0.01920845696926117</v>
       </c>
       <c r="J52">
-        <v>9.76</v>
+        <v>9.43</v>
       </c>
     </row>
     <row r="53" spans="7:10">
@@ -1659,10 +1719,10 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>0.0002641901042312384</v>
+        <v>0.0002157044974155724</v>
       </c>
       <c r="J53">
-        <v>98.29000000000001</v>
+        <v>98.62</v>
       </c>
     </row>
     <row r="54" spans="7:10">
@@ -1673,10 +1733,10 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>0.02080732929706574</v>
+        <v>0.0192850546836853</v>
       </c>
       <c r="J54">
-        <v>9.77</v>
+        <v>9.49</v>
       </c>
     </row>
     <row r="55" spans="7:10">
@@ -1687,10 +1747,10 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>0.0002630691148340702</v>
+        <v>0.0002152640160173178</v>
       </c>
       <c r="J55">
-        <v>98.29000000000001</v>
+        <v>98.63</v>
       </c>
     </row>
     <row r="56" spans="7:10">
@@ -1701,10 +1761,10 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>0.02095232362747192</v>
+        <v>0.01930602345466614</v>
       </c>
       <c r="J56">
-        <v>9.81</v>
+        <v>9.970000000000001</v>
       </c>
     </row>
     <row r="57" spans="7:10">
@@ -1715,10 +1775,10 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>0.0002625910511240363</v>
+        <v>0.0002227270361501724</v>
       </c>
       <c r="J57">
-        <v>98.28</v>
+        <v>98.59</v>
       </c>
     </row>
     <row r="58" spans="7:10">
@@ -1729,10 +1789,10 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>0.02109652698040008</v>
+        <v>0.0189331836938858</v>
       </c>
       <c r="J58">
-        <v>9.56</v>
+        <v>8.789999999999999</v>
       </c>
     </row>
     <row r="59" spans="7:10">
@@ -1743,10 +1803,10 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>0.0002707094900310039</v>
+        <v>0.0002214113763999194</v>
       </c>
       <c r="J59">
-        <v>98.17</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="60" spans="7:10">
@@ -1757,10 +1817,10 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>0.02034210360050201</v>
+        <v>0.01882647771835327</v>
       </c>
       <c r="J60">
-        <v>9.449999999999999</v>
+        <v>9.18</v>
       </c>
     </row>
     <row r="61" spans="7:10">
@@ -1771,10 +1831,10 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>0.0002697884425520897</v>
+        <v>0.000220712204836309</v>
       </c>
       <c r="J61">
-        <v>98.18000000000001</v>
+        <v>98.63</v>
       </c>
     </row>
     <row r="62" spans="7:10">
@@ -1785,10 +1845,10 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>0.02038301451206207</v>
+        <v>0.01886994218826294</v>
       </c>
       <c r="J62">
-        <v>9.58</v>
+        <v>9.33</v>
       </c>
     </row>
     <row r="63" spans="7:10">
@@ -1799,10 +1859,10 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>0.000269010896421969</v>
+        <v>0.00022053686324507</v>
       </c>
       <c r="J63">
-        <v>98.18000000000001</v>
+        <v>98.59</v>
       </c>
     </row>
     <row r="64" spans="7:10">
@@ -1813,10 +1873,10 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>0.02041902661323547</v>
+        <v>0.01885079891681671</v>
       </c>
       <c r="J64">
-        <v>9.66</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="65" spans="7:10">
@@ -1827,10 +1887,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>0.0002684057936072349</v>
+        <v>0.0002203024196438491</v>
       </c>
       <c r="J65">
-        <v>98.18000000000001</v>
+        <v>98.56999999999999</v>
       </c>
     </row>
     <row r="66" spans="7:10">
@@ -1841,10 +1901,10 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>0.02045608954429626</v>
+        <v>0.018839830327034</v>
       </c>
       <c r="J66">
-        <v>9.73</v>
+        <v>9.59</v>
       </c>
     </row>
     <row r="67" spans="7:10">
@@ -1855,10 +1915,10 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>0.000267751201801002</v>
+        <v>0.0002257059350609779</v>
       </c>
       <c r="J67">
-        <v>98.22</v>
+        <v>98.56999999999999</v>
       </c>
     </row>
     <row r="68" spans="7:10">
@@ -1869,10 +1929,122 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>0.02049391596317291</v>
+        <v>0.01905972354412079</v>
       </c>
       <c r="J68">
-        <v>9.84</v>
+        <v>8.460000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="7:10">
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>34</v>
+      </c>
+      <c r="I69">
+        <v>0.0002247973926365376</v>
+      </c>
+      <c r="J69">
+        <v>98.56</v>
+      </c>
+    </row>
+    <row r="70" spans="7:10">
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70">
+        <v>34</v>
+      </c>
+      <c r="I70">
+        <v>0.01902306954860687</v>
+      </c>
+      <c r="J70">
+        <v>8.59</v>
+      </c>
+    </row>
+    <row r="71" spans="7:10">
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>35</v>
+      </c>
+      <c r="I71">
+        <v>0.0002239863887429237</v>
+      </c>
+      <c r="J71">
+        <v>98.56999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="7:10">
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72">
+        <v>35</v>
+      </c>
+      <c r="I72">
+        <v>0.0189917192697525</v>
+      </c>
+      <c r="J72">
+        <v>8.69</v>
+      </c>
+    </row>
+    <row r="73" spans="7:10">
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>36</v>
+      </c>
+      <c r="I73">
+        <v>0.0002234270212240517</v>
+      </c>
+      <c r="J73">
+        <v>98.58</v>
+      </c>
+    </row>
+    <row r="74" spans="7:10">
+      <c r="G74">
+        <v>2</v>
+      </c>
+      <c r="H74">
+        <v>36</v>
+      </c>
+      <c r="I74">
+        <v>0.01897350533008576</v>
+      </c>
+      <c r="J74">
+        <v>8.720000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="7:10">
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>37</v>
+      </c>
+      <c r="I75">
+        <v>0.0002230278690811247</v>
+      </c>
+      <c r="J75">
+        <v>98.58</v>
+      </c>
+    </row>
+    <row r="76" spans="7:10">
+      <c r="G76">
+        <v>2</v>
+      </c>
+      <c r="H76">
+        <v>37</v>
+      </c>
+      <c r="I76">
+        <v>0.01896354823112488</v>
+      </c>
+      <c r="J76">
+        <v>8.800000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1886,7 +2058,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K132"/>
+  <dimension ref="A1:K130"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1945,13 +2117,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.186507866599343</v>
+        <v>1.157933552698656</v>
       </c>
       <c r="D3">
-        <v>0.6585266590118408</v>
+        <v>0.6310259699821472</v>
       </c>
       <c r="E3">
-        <v>85.215</v>
+        <v>86.63499999999999</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1960,10 +2132,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.001073292799293995</v>
+        <v>0.0007567178957164287</v>
       </c>
       <c r="J3">
-        <v>93.66</v>
+        <v>95.81</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1974,13 +2146,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.7781151074351687</v>
+        <v>0.771059739409071</v>
       </c>
       <c r="D4">
-        <v>0.5259978771209717</v>
+        <v>0.5396798849105835</v>
       </c>
       <c r="E4">
-        <v>86.71000000000001</v>
+        <v>87.935</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1989,10 +2161,10 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.003265937727689743</v>
+        <v>0.003159318202733994</v>
       </c>
       <c r="J4">
-        <v>76.77</v>
+        <v>77.45999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2003,13 +2175,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.6951251113956625</v>
+        <v>0.6921890625447938</v>
       </c>
       <c r="D5">
-        <v>0.4696825444698334</v>
+        <v>0.4911667108535767</v>
       </c>
       <c r="E5">
-        <v>88.08</v>
+        <v>88.81999999999999</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2018,10 +2190,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0.0009303853839635849</v>
+        <v>0.0007704319626092911</v>
       </c>
       <c r="J5">
-        <v>94.62</v>
+        <v>95.40000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2032,13 +2204,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.6453751732905706</v>
+        <v>0.645003487666448</v>
       </c>
       <c r="D6">
-        <v>0.4632687866687775</v>
+        <v>0.4493869543075562</v>
       </c>
       <c r="E6">
-        <v>88.47499999999999</v>
+        <v>89.19</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -2047,10 +2219,10 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0.002800630375742912</v>
+        <v>0.002743623325228691</v>
       </c>
       <c r="J6">
-        <v>78.8</v>
+        <v>80.47</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2061,13 +2233,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.6135422452832713</v>
+        <v>0.6125129837881435</v>
       </c>
       <c r="D7">
-        <v>0.4246900081634521</v>
+        <v>0.4334795773029327</v>
       </c>
       <c r="E7">
-        <v>89.235</v>
+        <v>89.67</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2076,10 +2248,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0.000878499385714531</v>
+        <v>0.0007178719379007816</v>
       </c>
       <c r="J7">
-        <v>94.88</v>
+        <v>95.84</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2090,13 +2262,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.5947434811881094</v>
+        <v>0.5934586093281254</v>
       </c>
       <c r="D8">
-        <v>0.3899774849414825</v>
+        <v>0.4186968505382538</v>
       </c>
       <c r="E8">
-        <v>89.77500000000001</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2105,10 +2277,10 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>0.002550471651554108</v>
+        <v>0.002532558545470238</v>
       </c>
       <c r="J8">
-        <v>81.28</v>
+        <v>81.8</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2119,13 +2291,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.5754899002385861</v>
+        <v>0.5733750282815009</v>
       </c>
       <c r="D9">
-        <v>0.3856984674930573</v>
+        <v>0.4105149805545807</v>
       </c>
       <c r="E9">
-        <v>90.03</v>
+        <v>90.21000000000001</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -2134,10 +2306,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>0.0008530030861496925</v>
+        <v>0.0007505773477256299</v>
       </c>
       <c r="J9">
-        <v>94.75</v>
+        <v>95.73999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2148,13 +2320,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.5638883113861084</v>
+        <v>0.5530808500268243</v>
       </c>
       <c r="D10">
-        <v>0.3710004985332489</v>
+        <v>0.3735783398151398</v>
       </c>
       <c r="E10">
-        <v>90.19</v>
+        <v>90.53</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -2163,10 +2335,10 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>0.002430400609970093</v>
+        <v>0.00241501769721508</v>
       </c>
       <c r="J10">
-        <v>82.2</v>
+        <v>82.64</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2177,13 +2349,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.5511278912876592</v>
+        <v>0.5474663738048438</v>
       </c>
       <c r="D11">
-        <v>0.3636302947998047</v>
+        <v>0.3946891725063324</v>
       </c>
       <c r="E11">
-        <v>90.19</v>
+        <v>90.65000000000001</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -2192,10 +2364,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>0.0008472994845360517</v>
+        <v>0.0007284772306680679</v>
       </c>
       <c r="J11">
-        <v>95.15000000000001</v>
+        <v>95.92</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2206,13 +2378,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.5374915560989669</v>
+        <v>0.531422932491158</v>
       </c>
       <c r="D12">
-        <v>0.343602329492569</v>
+        <v>0.3571610152721405</v>
       </c>
       <c r="E12">
-        <v>90.56</v>
+        <v>90.89</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2221,10 +2393,10 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>0.002300005653500557</v>
+        <v>0.002313456901907921</v>
       </c>
       <c r="J12">
-        <v>83.31999999999999</v>
+        <v>83.42</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2235,13 +2407,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.5270054185029233</v>
+        <v>0.5220511787768566</v>
       </c>
       <c r="D13">
-        <v>0.3344856202602386</v>
+        <v>0.3271277248859406</v>
       </c>
       <c r="E13">
-        <v>90.26499999999999</v>
+        <v>91.16999999999999</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -2250,10 +2422,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>0.0007895505137741565</v>
+        <v>0.0007126991249620915</v>
       </c>
       <c r="J13">
-        <v>95.3</v>
+        <v>95.72</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2264,13 +2436,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.5173108024127555</v>
+        <v>0.5148695011030544</v>
       </c>
       <c r="D14">
-        <v>0.3257696628570557</v>
+        <v>0.3340878784656525</v>
       </c>
       <c r="E14">
-        <v>90.61499999999999</v>
+        <v>91.21000000000001</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -2279,10 +2451,10 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>0.002181100177764893</v>
+        <v>0.002207521268725395</v>
       </c>
       <c r="J14">
-        <v>84.25</v>
+        <v>84.08</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2293,13 +2465,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.5112439053528237</v>
+        <v>0.5131756814140263</v>
       </c>
       <c r="D15">
-        <v>0.3368408977985382</v>
+        <v>0.3414130806922913</v>
       </c>
       <c r="E15">
-        <v>90.875</v>
+        <v>91.19499999999999</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2308,10 +2480,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>0.0008383754909038544</v>
+        <v>0.0007049941882491112</v>
       </c>
       <c r="J15">
-        <v>95.34</v>
+        <v>96.04000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2322,13 +2494,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.5050984624660376</v>
+        <v>0.5001174203374169</v>
       </c>
       <c r="D16">
-        <v>0.3366518616676331</v>
+        <v>0.3402620851993561</v>
       </c>
       <c r="E16">
-        <v>91.10499999999999</v>
+        <v>91.22</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -2337,10 +2509,10 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>0.00211815280020237</v>
+        <v>0.002162065520882606</v>
       </c>
       <c r="J16">
-        <v>84.72</v>
+        <v>84.38</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2351,13 +2523,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.5035367534919218</v>
+        <v>0.4929794589678446</v>
       </c>
       <c r="D17">
-        <v>0.3118712306022644</v>
+        <v>0.3356989920139313</v>
       </c>
       <c r="E17">
-        <v>91.07499999999999</v>
+        <v>91.48999999999999</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2366,10 +2538,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>0.0007923161279410124</v>
+        <v>0.0006641841419041157</v>
       </c>
       <c r="J17">
-        <v>95.26000000000001</v>
+        <v>96.01000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2380,13 +2552,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.4915976210073991</v>
+        <v>0.4889948583010471</v>
       </c>
       <c r="D18">
-        <v>0.3075404763221741</v>
+        <v>0.3155514597892761</v>
       </c>
       <c r="E18">
-        <v>91.19499999999999</v>
+        <v>91.52000000000001</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2395,10 +2567,10 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>0.002070780521631241</v>
+        <v>0.00206141092479229</v>
       </c>
       <c r="J18">
-        <v>85.12</v>
+        <v>85.05</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2409,13 +2581,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.4895677176388827</v>
+        <v>0.4849129585605679</v>
       </c>
       <c r="D19">
-        <v>0.3138496875762939</v>
+        <v>0.3029259145259857</v>
       </c>
       <c r="E19">
-        <v>91.145</v>
+        <v>91.435</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2424,10 +2596,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>0.000810624735057354</v>
+        <v>0.0006699476424604654</v>
       </c>
       <c r="J19">
-        <v>95.34999999999999</v>
+        <v>96.11</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2438,13 +2610,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.4876419976805196</v>
+        <v>0.4838135358059045</v>
       </c>
       <c r="D20">
-        <v>0.3292450308799744</v>
+        <v>0.3026239573955536</v>
       </c>
       <c r="E20">
-        <v>90.89500000000001</v>
+        <v>91.54499999999999</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2453,10 +2625,10 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>0.002047936344146729</v>
+        <v>0.002047965773940086</v>
       </c>
       <c r="J20">
-        <v>85.03</v>
+        <v>85.19</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2467,13 +2639,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.4838107393546538</v>
+        <v>0.4792422067938429</v>
       </c>
       <c r="D21">
-        <v>0.3119181096553802</v>
+        <v>0.2956421375274658</v>
       </c>
       <c r="E21">
-        <v>91.02500000000001</v>
+        <v>91.645</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2482,10 +2654,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>0.0008006083615124226</v>
+        <v>0.0006762400627136231</v>
       </c>
       <c r="J21">
-        <v>95.45</v>
+        <v>96.03</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2496,13 +2668,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.4806011694850343</v>
+        <v>0.4770721925027443</v>
       </c>
       <c r="D22">
-        <v>0.2935743033885956</v>
+        <v>0.2916152477264404</v>
       </c>
       <c r="E22">
-        <v>91.31</v>
+        <v>91.47</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2511,10 +2683,10 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.00198112750351429</v>
+        <v>0.001977044260501862</v>
       </c>
       <c r="J22">
-        <v>85.67</v>
+        <v>85.75</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2525,13 +2697,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.4745913473042575</v>
+        <v>0.4691963442347267</v>
       </c>
       <c r="D23">
-        <v>0.2868773639202118</v>
+        <v>0.2922231256961823</v>
       </c>
       <c r="E23">
-        <v>91.535</v>
+        <v>91.89500000000001</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2540,10 +2712,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>0.0008324574165046215</v>
+        <v>0.0006512366883456707</v>
       </c>
       <c r="J23">
-        <v>95.31999999999999</v>
+        <v>96.38</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2554,13 +2726,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.4686057111530593</v>
+        <v>0.4647180525642453</v>
       </c>
       <c r="D24">
-        <v>0.2922621071338654</v>
+        <v>0.3049960732460022</v>
       </c>
       <c r="E24">
-        <v>91.565</v>
+        <v>91.41999999999999</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2569,10 +2741,10 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>0.002001319867372513</v>
+        <v>0.001931885901093483</v>
       </c>
       <c r="J24">
-        <v>85.20999999999999</v>
+        <v>85.95999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2583,13 +2755,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.4657509532841769</v>
+        <v>0.4643052412704988</v>
       </c>
       <c r="D25">
-        <v>0.291904479265213</v>
+        <v>0.2860035598278046</v>
       </c>
       <c r="E25">
-        <v>91.42</v>
+        <v>91.84</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2598,10 +2770,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>0.0007822505302727223</v>
+        <v>0.000666505578905344</v>
       </c>
       <c r="J25">
-        <v>95.23999999999999</v>
+        <v>96.23</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2612,13 +2784,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.463824392358462</v>
+        <v>0.4611261177243609</v>
       </c>
       <c r="D26">
-        <v>0.3017250895500183</v>
+        <v>0.2999216318130493</v>
       </c>
       <c r="E26">
-        <v>91.535</v>
+        <v>91.61500000000001</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2627,10 +2799,10 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>0.001918801063299179</v>
+        <v>0.001890561118721962</v>
       </c>
       <c r="J26">
-        <v>85.98999999999999</v>
+        <v>86.19</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2641,13 +2813,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.4615021480755372</v>
+        <v>0.4596953538331118</v>
       </c>
       <c r="D27">
-        <v>0.2757779657840729</v>
+        <v>0.282132476568222</v>
       </c>
       <c r="E27">
-        <v>91.75</v>
+        <v>91.735</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2656,10 +2828,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>0.0007656828597187996</v>
+        <v>0.000693329056352377</v>
       </c>
       <c r="J27">
-        <v>95.73999999999999</v>
+        <v>96.06</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2670,13 +2842,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.4597924423037154</v>
+        <v>0.4574077660387212</v>
       </c>
       <c r="D28">
-        <v>0.2911840677261353</v>
+        <v>0.2682584822177887</v>
       </c>
       <c r="E28">
-        <v>91.72</v>
+        <v>91.715</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2685,10 +2857,10 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>0.001881661170721054</v>
+        <v>0.001899367693066597</v>
       </c>
       <c r="J28">
-        <v>86.01000000000001</v>
+        <v>86.33</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2699,13 +2871,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.4608680555314729</v>
+        <v>0.4555892104452307</v>
       </c>
       <c r="D29">
-        <v>0.2752158045768738</v>
+        <v>0.2812756597995758</v>
       </c>
       <c r="E29">
-        <v>91.815</v>
+        <v>91.595</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -2714,10 +2886,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>0.0007387323796749115</v>
+        <v>0.0006722935698926449</v>
       </c>
       <c r="J29">
-        <v>95.75</v>
+        <v>96.14</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2728,13 +2900,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.449562924468156</v>
+        <v>0.4538194390860471</v>
       </c>
       <c r="D30">
-        <v>0.2631185948848724</v>
+        <v>0.2787532210350037</v>
       </c>
       <c r="E30">
-        <v>91.78999999999999</v>
+        <v>92.005</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -2743,10 +2915,10 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>0.001880933532118797</v>
+        <v>0.001883216089010239</v>
       </c>
       <c r="J30">
-        <v>86.45999999999999</v>
+        <v>86.3</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2757,13 +2929,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.4560968710617586</v>
+        <v>0.4511873190150116</v>
       </c>
       <c r="D31">
-        <v>0.2605811059474945</v>
+        <v>0.2906433939933777</v>
       </c>
       <c r="E31">
-        <v>91.655</v>
+        <v>91.955</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -2772,10 +2944,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>0.0007626838162541389</v>
+        <v>0.0006237941991537809</v>
       </c>
       <c r="J31">
-        <v>95.66</v>
+        <v>96.31999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2786,13 +2958,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.4497993985811869</v>
+        <v>0.449764212604725</v>
       </c>
       <c r="D32">
-        <v>0.2635886669158936</v>
+        <v>0.2680061161518097</v>
       </c>
       <c r="E32">
-        <v>91.845</v>
+        <v>91.84999999999999</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -2801,10 +2973,10 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>0.001829756247997284</v>
+        <v>0.001870690226554871</v>
       </c>
       <c r="J32">
-        <v>86.48999999999999</v>
+        <v>86.66</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2815,13 +2987,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.4531432953747836</v>
+        <v>0.4507515416903929</v>
       </c>
       <c r="D33">
-        <v>0.2638902068138123</v>
+        <v>0.2792735993862152</v>
       </c>
       <c r="E33">
-        <v>91.93000000000001</v>
+        <v>91.77500000000001</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -2830,10 +3002,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>0.0007668882042169571</v>
+        <v>0.0006490655109286308</v>
       </c>
       <c r="J33">
-        <v>95.64</v>
+        <v>96.25</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2844,13 +3016,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.4456453547333226</v>
+        <v>0.4456246062661662</v>
       </c>
       <c r="D34">
-        <v>0.2845782935619354</v>
+        <v>0.2739154696464539</v>
       </c>
       <c r="E34">
-        <v>92.015</v>
+        <v>92.05500000000001</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -2859,10 +3031,10 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>0.001818342253565788</v>
+        <v>0.001818669334053993</v>
       </c>
       <c r="J34">
-        <v>86.75</v>
+        <v>86.79000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2873,13 +3045,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.4433941156575174</v>
+        <v>0.4486174716190858</v>
       </c>
       <c r="D35">
-        <v>0.2814731001853943</v>
+        <v>0.2741141021251678</v>
       </c>
       <c r="E35">
-        <v>91.97999999999999</v>
+        <v>91.92</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -2888,10 +3060,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>0.0007290825843811035</v>
+        <v>0.000685861124843359</v>
       </c>
       <c r="J35">
-        <v>95.66</v>
+        <v>95.98999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2902,13 +3074,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.444611994786696</v>
+        <v>0.442437448646083</v>
       </c>
       <c r="D36">
-        <v>0.2766715288162231</v>
+        <v>0.2829116880893707</v>
       </c>
       <c r="E36">
-        <v>91.92500000000001</v>
+        <v>91.97</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -2917,10 +3089,10 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>0.001813789227604866</v>
+        <v>0.001798542433977127</v>
       </c>
       <c r="J36">
-        <v>86.63</v>
+        <v>86.88</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2931,13 +3103,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.4394744794477116</v>
+        <v>0.4397606411666581</v>
       </c>
       <c r="D37">
-        <v>0.2615360915660858</v>
+        <v>0.2760736346244812</v>
       </c>
       <c r="E37">
-        <v>91.88</v>
+        <v>91.87</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -2946,10 +3118,10 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>0.0008140969783067703</v>
+        <v>0.0006634069815278053</v>
       </c>
       <c r="J37">
-        <v>95.31</v>
+        <v>96.20999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2960,13 +3132,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.4351747749429761</v>
+        <v>0.4365844464663303</v>
       </c>
       <c r="D38">
-        <v>0.256938636302948</v>
+        <v>0.2662034034729004</v>
       </c>
       <c r="E38">
-        <v>91.99000000000001</v>
+        <v>92.005</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -2975,10 +3147,10 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>0.001807674886286259</v>
+        <v>0.001781498914957047</v>
       </c>
       <c r="J38">
-        <v>86.48</v>
+        <v>86.88</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2989,13 +3161,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0.4355249179132057</v>
+        <v>0.4341960364218914</v>
       </c>
       <c r="D39">
-        <v>0.2604704797267914</v>
+        <v>0.2635311782360077</v>
       </c>
       <c r="E39">
-        <v>92</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3004,10 +3176,10 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>0.0007799437779933214</v>
+        <v>0.0006342595063149929</v>
       </c>
       <c r="J39">
-        <v>95.47</v>
+        <v>96.23999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -3018,13 +3190,13 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>0.43121445720846</v>
+        <v>0.4318865595441876</v>
       </c>
       <c r="D40">
-        <v>0.2611630856990814</v>
+        <v>0.2675860524177551</v>
       </c>
       <c r="E40">
-        <v>92.08</v>
+        <v>92.10499999999999</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3033,10 +3205,10 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>0.001808061937987804</v>
+        <v>0.001762987729907036</v>
       </c>
       <c r="J40">
-        <v>86.58</v>
+        <v>87.05</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -3047,13 +3219,13 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>0.435092050559593</v>
+        <v>0.4351993728767742</v>
       </c>
       <c r="D41">
-        <v>0.2578702867031097</v>
+        <v>0.2669994831085205</v>
       </c>
       <c r="E41">
-        <v>92.06999999999999</v>
+        <v>92.13499999999999</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3062,10 +3234,10 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>0.0006962156519293785</v>
+        <v>0.000684475825726986</v>
       </c>
       <c r="J41">
-        <v>95.78</v>
+        <v>95.98999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -3076,13 +3248,13 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>0.426623738805453</v>
+        <v>0.4275205246426843</v>
       </c>
       <c r="D42">
-        <v>0.2595134675502777</v>
+        <v>0.2683663666248322</v>
       </c>
       <c r="E42">
-        <v>92.10499999999999</v>
+        <v>92.075</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -3091,10 +3263,10 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>0.001770119801163673</v>
+        <v>0.001782211935520172</v>
       </c>
       <c r="J42">
-        <v>86.84</v>
+        <v>86.95</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3105,13 +3277,13 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>0.429762969233773</v>
+        <v>0.428116011709878</v>
       </c>
       <c r="D43">
-        <v>0.2518579661846161</v>
+        <v>0.2586157321929932</v>
       </c>
       <c r="E43">
-        <v>92.07499999999999</v>
+        <v>92.125</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -3120,10 +3292,10 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>0.0007311951287090778</v>
+        <v>0.0006233338966965676</v>
       </c>
       <c r="J43">
-        <v>95.77</v>
+        <v>96.26000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -3134,13 +3306,13 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>0.4271552391124494</v>
+        <v>0.4288492667855638</v>
       </c>
       <c r="D44">
-        <v>0.2535215616226196</v>
+        <v>0.2646928131580353</v>
       </c>
       <c r="E44">
-        <v>92.13500000000001</v>
+        <v>92.06999999999999</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -3149,10 +3321,10 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>0.001764207649230957</v>
+        <v>0.001740537613630295</v>
       </c>
       <c r="J44">
-        <v>87.3</v>
+        <v>87.53</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -3163,13 +3335,13 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>0.4298185044165814</v>
+        <v>0.4286648698828437</v>
       </c>
       <c r="D45">
-        <v>0.2567009329795837</v>
+        <v>0.2661386430263519</v>
       </c>
       <c r="E45">
-        <v>92.06999999999999</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -3178,10 +3350,10 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>0.0007184044919908047</v>
+        <v>0.0006540666528046131</v>
       </c>
       <c r="J45">
-        <v>95.91</v>
+        <v>96.02</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -3192,13 +3364,13 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>0.4303370249993874</v>
+        <v>0.4265041718880335</v>
       </c>
       <c r="D46">
-        <v>0.2479944378137589</v>
+        <v>0.2544077932834625</v>
       </c>
       <c r="E46">
-        <v>92.10499999999999</v>
+        <v>92.13</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -3207,10 +3379,10 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>0.00175043710321188</v>
+        <v>0.001748693481087685</v>
       </c>
       <c r="J46">
-        <v>87.22</v>
+        <v>86.81999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -3221,13 +3393,13 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>0.4271043558012356</v>
+        <v>0.4275990524075248</v>
       </c>
       <c r="D47">
-        <v>0.255134642124176</v>
+        <v>0.2570038735866547</v>
       </c>
       <c r="E47">
-        <v>92.12</v>
+        <v>92.11</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -3236,10 +3408,10 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>0.0007182212185114622</v>
+        <v>0.0006371081732213498</v>
       </c>
       <c r="J47">
-        <v>95.86</v>
+        <v>96.19</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -3250,13 +3422,13 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>0.4265977469357577</v>
+        <v>0.4216175756671212</v>
       </c>
       <c r="D48">
-        <v>0.2552964985370636</v>
+        <v>0.2617533504962921</v>
       </c>
       <c r="E48">
-        <v>92.095</v>
+        <v>92.185</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -3265,10 +3437,10 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>0.001747847133874893</v>
+        <v>0.001726138058304787</v>
       </c>
       <c r="J48">
-        <v>86.98</v>
+        <v>87.48999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -3279,13 +3451,13 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <v>0.4281253901394931</v>
+        <v>0.4261001054084662</v>
       </c>
       <c r="D49">
-        <v>0.2522700428962708</v>
+        <v>0.2563175857067108</v>
       </c>
       <c r="E49">
-        <v>92.15000000000001</v>
+        <v>92.19</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -3294,10 +3466,10 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>0.0007057654559612274</v>
+        <v>0.0006958659827709198</v>
       </c>
       <c r="J49">
-        <v>95.77</v>
+        <v>95.90000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -3308,13 +3480,13 @@
         <v>48</v>
       </c>
       <c r="C50">
-        <v>0.4261156841660991</v>
+        <v>0.4226620959513115</v>
       </c>
       <c r="D50">
-        <v>0.2488097846508026</v>
+        <v>0.2567805349826813</v>
       </c>
       <c r="E50">
-        <v>92.11500000000001</v>
+        <v>92.19</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -3323,10 +3495,10 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>0.001755342254042625</v>
+        <v>0.001731899182498455</v>
       </c>
       <c r="J50">
-        <v>87.3</v>
+        <v>87.33</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -3337,13 +3509,13 @@
         <v>49</v>
       </c>
       <c r="C51">
-        <v>0.4277363474621917</v>
+        <v>0.4253677982272524</v>
       </c>
       <c r="D51">
-        <v>0.2480597347021103</v>
+        <v>0.2553925514221191</v>
       </c>
       <c r="E51">
-        <v>92.18000000000001</v>
+        <v>92.285</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -3352,10 +3524,10 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>0.0006789915472269058</v>
+        <v>0.0006678145483136177</v>
       </c>
       <c r="J51">
-        <v>96.01000000000001</v>
+        <v>96.06999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -3366,13 +3538,13 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>0.4273252311981086</v>
+        <v>0.4211214808803616</v>
       </c>
       <c r="D52">
-        <v>0.2496574968099594</v>
+        <v>0.2569148540496826</v>
       </c>
       <c r="E52">
-        <v>92.14500000000001</v>
+        <v>92.185</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -3381,10 +3553,10 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>0.001711400546133518</v>
+        <v>0.001731342375278473</v>
       </c>
       <c r="J52">
-        <v>87.48999999999999</v>
+        <v>87.40000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3395,13 +3567,13 @@
         <v>51</v>
       </c>
       <c r="C53">
-        <v>0.4277314339623307</v>
+        <v>0.4238343324625131</v>
       </c>
       <c r="D53">
-        <v>0.2494155317544937</v>
+        <v>0.2548833191394806</v>
       </c>
       <c r="E53">
-        <v>92.09999999999999</v>
+        <v>92.22999999999999</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -3410,10 +3582,10 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>0.0007142761223018169</v>
+        <v>0.0006418331414461136</v>
       </c>
       <c r="J53">
-        <v>95.87</v>
+        <v>96.16</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -3424,13 +3596,13 @@
         <v>52</v>
       </c>
       <c r="C54">
-        <v>0.4246371993512819</v>
+        <v>0.4252529788197893</v>
       </c>
       <c r="D54">
-        <v>0.2505125105381012</v>
+        <v>0.25634765625</v>
       </c>
       <c r="E54">
-        <v>92.10499999999999</v>
+        <v>92.185</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -3439,10 +3611,10 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>0.001729918621480465</v>
+        <v>0.001718581360578537</v>
       </c>
       <c r="J54">
-        <v>87.56999999999999</v>
+        <v>87.27</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -3453,13 +3625,13 @@
         <v>53</v>
       </c>
       <c r="C55">
-        <v>0.423065743301854</v>
+        <v>0.4239875255209027</v>
       </c>
       <c r="D55">
-        <v>0.2505646049976349</v>
+        <v>0.2579581737518311</v>
       </c>
       <c r="E55">
-        <v>92.11</v>
+        <v>92.175</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -3468,10 +3640,10 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>0.0006866892609745264</v>
+        <v>0.0006853185802698135</v>
       </c>
       <c r="J55">
-        <v>96.11</v>
+        <v>95.84</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -3482,13 +3654,13 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>0.4252646967317119</v>
+        <v>0.4269084278381232</v>
       </c>
       <c r="D56">
-        <v>0.2506526708602905</v>
+        <v>0.2592669129371643</v>
       </c>
       <c r="E56">
-        <v>92.075</v>
+        <v>92.215</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -3497,10 +3669,10 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>0.001710878723859787</v>
+        <v>0.001710427878797054</v>
       </c>
       <c r="J56">
-        <v>87.52</v>
+        <v>87.34999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -3511,13 +3683,13 @@
         <v>55</v>
       </c>
       <c r="C57">
-        <v>0.4301458797671578</v>
+        <v>0.4292257850820368</v>
       </c>
       <c r="D57">
-        <v>0.2479592263698578</v>
+        <v>0.2557410895824432</v>
       </c>
       <c r="E57">
-        <v>92.045</v>
+        <v>92.16499999999999</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -3526,10 +3698,10 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>0.0006709426131099463</v>
+        <v>0.0006411796111613512</v>
       </c>
       <c r="J57">
-        <v>95.98999999999999</v>
+        <v>96.22</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3540,13 +3712,13 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <v>0.4270391864306999</v>
+        <v>0.4263553762977774</v>
       </c>
       <c r="D58">
-        <v>0.2482341974973679</v>
+        <v>0.2558368742465973</v>
       </c>
       <c r="E58">
-        <v>92.08500000000001</v>
+        <v>92.13</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -3555,10 +3727,10 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>0.001676706813275814</v>
+        <v>0.001690872943401337</v>
       </c>
       <c r="J58">
-        <v>87.59</v>
+        <v>87.79000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -3569,13 +3741,13 @@
         <v>57</v>
       </c>
       <c r="C59">
-        <v>0.4278731215180773</v>
+        <v>0.4268371059135957</v>
       </c>
       <c r="D59">
-        <v>0.2486499845981598</v>
+        <v>0.2561550736427307</v>
       </c>
       <c r="E59">
-        <v>92.05500000000001</v>
+        <v>92.14500000000001</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -3584,10 +3756,10 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>0.0007288554862141609</v>
+        <v>0.0006381244976073504</v>
       </c>
       <c r="J59">
-        <v>95.87</v>
+        <v>96.20999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -3598,13 +3770,13 @@
         <v>58</v>
       </c>
       <c r="C60">
-        <v>0.4248597601146409</v>
+        <v>0.4267639702016657</v>
       </c>
       <c r="D60">
-        <v>0.2486926019191742</v>
+        <v>0.2567359805107117</v>
       </c>
       <c r="E60">
-        <v>92.125</v>
+        <v>92.15000000000001</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -3613,10 +3785,10 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>0.001678468178212643</v>
+        <v>0.001686013115942478</v>
       </c>
       <c r="J60">
-        <v>87.44</v>
+        <v>87.7</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -3627,13 +3799,13 @@
         <v>59</v>
       </c>
       <c r="C61">
-        <v>0.4271591947837309</v>
+        <v>0.4254692628528133</v>
       </c>
       <c r="D61">
-        <v>0.2490396797657013</v>
+        <v>0.2563736140727997</v>
       </c>
       <c r="E61">
-        <v>92.11</v>
+        <v>92.155</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -3642,10 +3814,10 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>0.0006961776435375213</v>
+        <v>0.0006575708545744419</v>
       </c>
       <c r="J61">
-        <v>96.12</v>
+        <v>96.08</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3656,13 +3828,13 @@
         <v>60</v>
       </c>
       <c r="C62">
-        <v>0.4242653513496572</v>
+        <v>0.4253014095804908</v>
       </c>
       <c r="D62">
-        <v>0.2486346364021301</v>
+        <v>0.2546655237674713</v>
       </c>
       <c r="E62">
-        <v>92.14</v>
+        <v>92.11499999999999</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -3671,10 +3843,10 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>0.001675593088567257</v>
+        <v>0.00168172835111618</v>
       </c>
       <c r="J62">
-        <v>87.56999999999999</v>
+        <v>87.62</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3685,13 +3857,13 @@
         <v>61</v>
       </c>
       <c r="C63">
-        <v>0.4250507667660713</v>
+        <v>0.4262194125941305</v>
       </c>
       <c r="D63">
-        <v>0.2481085211038589</v>
+        <v>0.2549511194229126</v>
       </c>
       <c r="E63">
-        <v>92.045</v>
+        <v>92.13</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -3700,10 +3872,10 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>0.0007053633898496627</v>
+        <v>0.0006492373593151569</v>
       </c>
       <c r="J63">
-        <v>96.22</v>
+        <v>96.09</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3714,13 +3886,13 @@
         <v>62</v>
       </c>
       <c r="C64">
-        <v>0.426169911478505</v>
+        <v>0.4252358274929451</v>
       </c>
       <c r="D64">
-        <v>0.2480826526880264</v>
+        <v>0.2552506625652313</v>
       </c>
       <c r="E64">
-        <v>92.06</v>
+        <v>92.13</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -3729,10 +3901,10 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>0.00170214771181345</v>
+        <v>0.0016831109136343</v>
       </c>
       <c r="J64">
-        <v>87.64</v>
+        <v>87.45999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3743,13 +3915,13 @@
         <v>63</v>
       </c>
       <c r="C65">
-        <v>0.4252038605285413</v>
+        <v>0.4248354732990265</v>
       </c>
       <c r="D65">
-        <v>0.248008519411087</v>
+        <v>0.2554275989532471</v>
       </c>
       <c r="E65">
-        <v>92.06</v>
+        <v>92.16</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -3758,10 +3930,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>0.0006908396549522877</v>
+        <v>0.0006224757190793753</v>
       </c>
       <c r="J65">
-        <v>96.03</v>
+        <v>96.27</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3772,13 +3944,13 @@
         <v>64</v>
       </c>
       <c r="C66">
-        <v>0.4230945149605924</v>
+        <v>0.4232215399994995</v>
       </c>
       <c r="D66">
-        <v>0.2479747235774994</v>
+        <v>0.2556555271148682</v>
       </c>
       <c r="E66">
-        <v>92.06999999999999</v>
+        <v>92.16</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -3787,28 +3959,13 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>0.001684323251247406</v>
+        <v>0.001673812380433083</v>
       </c>
       <c r="J66">
-        <v>88</v>
+        <v>87.84</v>
       </c>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67">
-        <v>2</v>
-      </c>
-      <c r="B67">
-        <v>65</v>
-      </c>
-      <c r="C67">
-        <v>0.4258957563024579</v>
-      </c>
-      <c r="D67">
-        <v>0.2480573505163193</v>
-      </c>
-      <c r="E67">
-        <v>92.075</v>
-      </c>
       <c r="G67">
         <v>1</v>
       </c>
@@ -3816,10 +3973,10 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>0.0006791740104556083</v>
+        <v>0.0006582371912896634</v>
       </c>
       <c r="J67">
-        <v>96.08</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -3830,10 +3987,10 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>0.001647847855091095</v>
+        <v>0.001673291084170341</v>
       </c>
       <c r="J68">
-        <v>87.88</v>
+        <v>87.64</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -3844,10 +4001,10 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>0.0006918039217591286</v>
+        <v>0.0006366710171103478</v>
       </c>
       <c r="J69">
-        <v>96.01000000000001</v>
+        <v>96.25</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -3858,10 +4015,10 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>0.001671204303205013</v>
+        <v>0.001656625869870186</v>
       </c>
       <c r="J70">
-        <v>87.84</v>
+        <v>87.69</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -3872,10 +4029,10 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>0.0006657251097261905</v>
+        <v>0.0006632885232567787</v>
       </c>
       <c r="J71">
-        <v>96.09999999999999</v>
+        <v>96.12</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -3886,10 +4043,10 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>0.001665188765525818</v>
+        <v>0.001687006784975529</v>
       </c>
       <c r="J72">
-        <v>87.66</v>
+        <v>87.62</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -3900,10 +4057,10 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>0.0006544589806348085</v>
+        <v>0.0006233512617647648</v>
       </c>
       <c r="J73">
-        <v>96.18000000000001</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -3914,10 +4071,10 @@
         <v>36</v>
       </c>
       <c r="I74">
-        <v>0.001662034842371941</v>
+        <v>0.00165984588265419</v>
       </c>
       <c r="J74">
-        <v>87.8</v>
+        <v>87.70999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -3928,10 +4085,10 @@
         <v>37</v>
       </c>
       <c r="I75">
-        <v>0.000656304282695055</v>
+        <v>0.0006116606950759887</v>
       </c>
       <c r="J75">
-        <v>96.13</v>
+        <v>96.37</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -3942,10 +4099,10 @@
         <v>37</v>
       </c>
       <c r="I76">
-        <v>0.001660818387567997</v>
+        <v>0.001664437448978424</v>
       </c>
       <c r="J76">
-        <v>87.87</v>
+        <v>87.83</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -3956,10 +4113,10 @@
         <v>38</v>
       </c>
       <c r="I77">
-        <v>0.0006508020162582398</v>
+        <v>0.000611382320895791</v>
       </c>
       <c r="J77">
-        <v>96.20999999999999</v>
+        <v>96.19</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -3970,10 +4127,10 @@
         <v>38</v>
       </c>
       <c r="I78">
-        <v>0.001651377153396606</v>
+        <v>0.001659744502604008</v>
       </c>
       <c r="J78">
-        <v>87.95</v>
+        <v>88.02</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -3984,10 +4141,10 @@
         <v>39</v>
       </c>
       <c r="I79">
-        <v>0.0006377859853208065</v>
+        <v>0.0006121550764888525</v>
       </c>
       <c r="J79">
-        <v>96.22</v>
+        <v>96.39</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -3998,10 +4155,10 @@
         <v>39</v>
       </c>
       <c r="I80">
-        <v>0.001649292647838593</v>
+        <v>0.00165741480588913</v>
       </c>
       <c r="J80">
-        <v>87.92</v>
+        <v>87.88</v>
       </c>
     </row>
     <row r="81" spans="7:10">
@@ -4012,10 +4169,10 @@
         <v>40</v>
       </c>
       <c r="I81">
-        <v>0.0006326572373509407</v>
+        <v>0.0006127047374844551</v>
       </c>
       <c r="J81">
-        <v>96.3</v>
+        <v>96.29000000000001</v>
       </c>
     </row>
     <row r="82" spans="7:10">
@@ -4026,10 +4183,10 @@
         <v>40</v>
       </c>
       <c r="I82">
-        <v>0.001643926566839218</v>
+        <v>0.001656828105449676</v>
       </c>
       <c r="J82">
-        <v>87.91</v>
+        <v>87.86</v>
       </c>
     </row>
     <row r="83" spans="7:10">
@@ -4040,10 +4197,10 @@
         <v>41</v>
       </c>
       <c r="I83">
-        <v>0.0006420073237270117</v>
+        <v>0.0006131965704262257</v>
       </c>
       <c r="J83">
-        <v>96.23999999999999</v>
+        <v>96.34</v>
       </c>
     </row>
     <row r="84" spans="7:10">
@@ -4054,7 +4211,7 @@
         <v>41</v>
       </c>
       <c r="I84">
-        <v>0.001642144951224327</v>
+        <v>0.001651732324063778</v>
       </c>
       <c r="J84">
         <v>87.91</v>
@@ -4068,10 +4225,10 @@
         <v>42</v>
       </c>
       <c r="I85">
-        <v>0.0006389999508857727</v>
+        <v>0.0006220767099410295</v>
       </c>
       <c r="J85">
-        <v>96.29000000000001</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="86" spans="7:10">
@@ -4082,10 +4239,10 @@
         <v>42</v>
       </c>
       <c r="I86">
-        <v>0.001646487937867641</v>
+        <v>0.001656411404907703</v>
       </c>
       <c r="J86">
-        <v>87.98</v>
+        <v>87.84</v>
       </c>
     </row>
     <row r="87" spans="7:10">
@@ -4096,10 +4253,10 @@
         <v>43</v>
       </c>
       <c r="I87">
-        <v>0.000639456508308649</v>
+        <v>0.0006129437625408173</v>
       </c>
       <c r="J87">
-        <v>96.14</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="88" spans="7:10">
@@ -4110,10 +4267,10 @@
         <v>43</v>
       </c>
       <c r="I88">
-        <v>0.001644173911213875</v>
+        <v>0.001650672443211079</v>
       </c>
       <c r="J88">
-        <v>88</v>
+        <v>87.90000000000001</v>
       </c>
     </row>
     <row r="89" spans="7:10">
@@ -4124,10 +4281,10 @@
         <v>44</v>
       </c>
       <c r="I89">
-        <v>0.0006432254463434219</v>
+        <v>0.0006121955867856741</v>
       </c>
       <c r="J89">
-        <v>96.19</v>
+        <v>96.42</v>
       </c>
     </row>
     <row r="90" spans="7:10">
@@ -4138,10 +4295,10 @@
         <v>44</v>
       </c>
       <c r="I90">
-        <v>0.001641088110208511</v>
+        <v>0.001647225467860699</v>
       </c>
       <c r="J90">
-        <v>88.02</v>
+        <v>87.84</v>
       </c>
     </row>
     <row r="91" spans="7:10">
@@ -4152,10 +4309,10 @@
         <v>45</v>
       </c>
       <c r="I91">
-        <v>0.0006335738778114318</v>
+        <v>0.0006068446215242147</v>
       </c>
       <c r="J91">
-        <v>96.31999999999999</v>
+        <v>96.38</v>
       </c>
     </row>
     <row r="92" spans="7:10">
@@ -4166,10 +4323,10 @@
         <v>45</v>
       </c>
       <c r="I92">
-        <v>0.001633611124753952</v>
+        <v>0.001645966529846191</v>
       </c>
       <c r="J92">
-        <v>87.92</v>
+        <v>87.84</v>
       </c>
     </row>
     <row r="93" spans="7:10">
@@ -4180,10 +4337,10 @@
         <v>46</v>
       </c>
       <c r="I93">
-        <v>0.0006290718734264373</v>
+        <v>0.0005987394899129867</v>
       </c>
       <c r="J93">
-        <v>96.31999999999999</v>
+        <v>96.45999999999999</v>
       </c>
     </row>
     <row r="94" spans="7:10">
@@ -4194,10 +4351,10 @@
         <v>46</v>
       </c>
       <c r="I94">
-        <v>0.001640434990823269</v>
+        <v>0.001649371521174908</v>
       </c>
       <c r="J94">
-        <v>87.87</v>
+        <v>87.91</v>
       </c>
     </row>
     <row r="95" spans="7:10">
@@ -4208,10 +4365,10 @@
         <v>47</v>
       </c>
       <c r="I95">
-        <v>0.0006375999942421913</v>
+        <v>0.0006013580024242401</v>
       </c>
       <c r="J95">
-        <v>96.25</v>
+        <v>96.44</v>
       </c>
     </row>
     <row r="96" spans="7:10">
@@ -4222,10 +4379,10 @@
         <v>47</v>
       </c>
       <c r="I96">
-        <v>0.001639988584816456</v>
+        <v>0.001640183526277542</v>
       </c>
       <c r="J96">
-        <v>88.05</v>
+        <v>87.94</v>
       </c>
     </row>
     <row r="97" spans="7:10">
@@ -4236,10 +4393,10 @@
         <v>48</v>
       </c>
       <c r="I97">
-        <v>0.0006434582337737084</v>
+        <v>0.0006006731923669577</v>
       </c>
       <c r="J97">
-        <v>96.18000000000001</v>
+        <v>96.45</v>
       </c>
     </row>
     <row r="98" spans="7:10">
@@ -4250,10 +4407,10 @@
         <v>48</v>
       </c>
       <c r="I98">
-        <v>0.001632488425076008</v>
+        <v>0.001635038951039314</v>
       </c>
       <c r="J98">
-        <v>88.05</v>
+        <v>87.93000000000001</v>
       </c>
     </row>
     <row r="99" spans="7:10">
@@ -4264,10 +4421,10 @@
         <v>49</v>
       </c>
       <c r="I99">
-        <v>0.0006324454426765442</v>
+        <v>0.000600668515264988</v>
       </c>
       <c r="J99">
-        <v>96.20999999999999</v>
+        <v>96.47</v>
       </c>
     </row>
     <row r="100" spans="7:10">
@@ -4278,10 +4435,10 @@
         <v>49</v>
       </c>
       <c r="I100">
-        <v>0.001629844611883163</v>
+        <v>0.001632586859166622</v>
       </c>
       <c r="J100">
-        <v>88.15000000000001</v>
+        <v>88.09999999999999</v>
       </c>
     </row>
     <row r="101" spans="7:10">
@@ -4292,10 +4449,10 @@
         <v>50</v>
       </c>
       <c r="I101">
-        <v>0.0006430727958679199</v>
+        <v>0.000601168954744935</v>
       </c>
       <c r="J101">
-        <v>96.25</v>
+        <v>96.38</v>
       </c>
     </row>
     <row r="102" spans="7:10">
@@ -4306,10 +4463,10 @@
         <v>50</v>
       </c>
       <c r="I102">
-        <v>0.00164107633382082</v>
+        <v>0.00164146436303854</v>
       </c>
       <c r="J102">
-        <v>88.04000000000001</v>
+        <v>87.98999999999999</v>
       </c>
     </row>
     <row r="103" spans="7:10">
@@ -4320,10 +4477,10 @@
         <v>51</v>
       </c>
       <c r="I103">
-        <v>0.0006426834844052791</v>
+        <v>0.0005972674813121557</v>
       </c>
       <c r="J103">
-        <v>96.23</v>
+        <v>96.44</v>
       </c>
     </row>
     <row r="104" spans="7:10">
@@ -4334,10 +4491,10 @@
         <v>51</v>
       </c>
       <c r="I104">
-        <v>0.00163909150660038</v>
+        <v>0.001639691105484963</v>
       </c>
       <c r="J104">
-        <v>87.97</v>
+        <v>88.02</v>
       </c>
     </row>
     <row r="105" spans="7:10">
@@ -4348,10 +4505,10 @@
         <v>52</v>
       </c>
       <c r="I105">
-        <v>0.0006396995794028044</v>
+        <v>0.0006004725001752376</v>
       </c>
       <c r="J105">
-        <v>96.20999999999999</v>
+        <v>96.43000000000001</v>
       </c>
     </row>
     <row r="106" spans="7:10">
@@ -4362,10 +4519,10 @@
         <v>52</v>
       </c>
       <c r="I106">
-        <v>0.001640603436529636</v>
+        <v>0.001640647260844707</v>
       </c>
       <c r="J106">
-        <v>88</v>
+        <v>87.94</v>
       </c>
     </row>
     <row r="107" spans="7:10">
@@ -4376,10 +4533,10 @@
         <v>53</v>
       </c>
       <c r="I107">
-        <v>0.0006369850117713213</v>
+        <v>0.0005981754437088966</v>
       </c>
       <c r="J107">
-        <v>96.23</v>
+        <v>96.38</v>
       </c>
     </row>
     <row r="108" spans="7:10">
@@ -4390,10 +4547,10 @@
         <v>53</v>
       </c>
       <c r="I108">
-        <v>0.001636705143749714</v>
+        <v>0.001639484794437885</v>
       </c>
       <c r="J108">
-        <v>87.98999999999999</v>
+        <v>87.97</v>
       </c>
     </row>
     <row r="109" spans="7:10">
@@ -4404,10 +4561,10 @@
         <v>54</v>
       </c>
       <c r="I109">
-        <v>0.0006369454242289067</v>
+        <v>0.0005944173503667116</v>
       </c>
       <c r="J109">
-        <v>96.26000000000001</v>
+        <v>96.40000000000001</v>
       </c>
     </row>
     <row r="110" spans="7:10">
@@ -4418,10 +4575,10 @@
         <v>54</v>
       </c>
       <c r="I110">
-        <v>0.001638152503967285</v>
+        <v>0.001640563975274563</v>
       </c>
       <c r="J110">
-        <v>87.89</v>
+        <v>88.03</v>
       </c>
     </row>
     <row r="111" spans="7:10">
@@ -4432,10 +4589,10 @@
         <v>55</v>
       </c>
       <c r="I111">
-        <v>0.0006424027387052774</v>
+        <v>0.0006079150170087814</v>
       </c>
       <c r="J111">
-        <v>96.16</v>
+        <v>96.41</v>
       </c>
     </row>
     <row r="112" spans="7:10">
@@ -4446,10 +4603,10 @@
         <v>55</v>
       </c>
       <c r="I112">
-        <v>0.001639846107363701</v>
+        <v>0.001646104598045349</v>
       </c>
       <c r="J112">
-        <v>87.93000000000001</v>
+        <v>87.92</v>
       </c>
     </row>
     <row r="113" spans="7:10">
@@ -4460,10 +4617,10 @@
         <v>56</v>
       </c>
       <c r="I113">
-        <v>0.0006406197838485241</v>
+        <v>0.0006049267753958702</v>
       </c>
       <c r="J113">
-        <v>96.2</v>
+        <v>96.38</v>
       </c>
     </row>
     <row r="114" spans="7:10">
@@ -4474,10 +4631,10 @@
         <v>56</v>
       </c>
       <c r="I114">
-        <v>0.001639216007292271</v>
+        <v>0.001644210910797119</v>
       </c>
       <c r="J114">
-        <v>87.97</v>
+        <v>87.88</v>
       </c>
     </row>
     <row r="115" spans="7:10">
@@ -4488,10 +4645,10 @@
         <v>57</v>
       </c>
       <c r="I115">
-        <v>0.0006392200343310832</v>
+        <v>0.0006038008432835341</v>
       </c>
       <c r="J115">
-        <v>96.2</v>
+        <v>96.36</v>
       </c>
     </row>
     <row r="116" spans="7:10">
@@ -4502,10 +4659,10 @@
         <v>57</v>
       </c>
       <c r="I116">
-        <v>0.001639112156629562</v>
+        <v>0.001643629498779774</v>
       </c>
       <c r="J116">
-        <v>87.91</v>
+        <v>87.93000000000001</v>
       </c>
     </row>
     <row r="117" spans="7:10">
@@ -4516,10 +4673,10 @@
         <v>58</v>
       </c>
       <c r="I117">
-        <v>0.0006378027968108654</v>
+        <v>0.0006035566441714764</v>
       </c>
       <c r="J117">
-        <v>96.27</v>
+        <v>96.36</v>
       </c>
     </row>
     <row r="118" spans="7:10">
@@ -4530,10 +4687,10 @@
         <v>58</v>
       </c>
       <c r="I118">
-        <v>0.001638936872780323</v>
+        <v>0.001643534417450428</v>
       </c>
       <c r="J118">
-        <v>87.98</v>
+        <v>87.94</v>
       </c>
     </row>
     <row r="119" spans="7:10">
@@ -4544,10 +4701,10 @@
         <v>59</v>
       </c>
       <c r="I119">
-        <v>0.0006381619147956372</v>
+        <v>0.0006028915219008922</v>
       </c>
       <c r="J119">
-        <v>96.26000000000001</v>
+        <v>96.34999999999999</v>
       </c>
     </row>
     <row r="120" spans="7:10">
@@ -4558,7 +4715,7 @@
         <v>59</v>
       </c>
       <c r="I120">
-        <v>0.00163896401822567</v>
+        <v>0.001643146140873432</v>
       </c>
       <c r="J120">
         <v>87.95999999999999</v>
@@ -4572,10 +4729,10 @@
         <v>60</v>
       </c>
       <c r="I121">
-        <v>0.0006386019069701433</v>
+        <v>0.0006117746889591217</v>
       </c>
       <c r="J121">
-        <v>96.3</v>
+        <v>96.41</v>
       </c>
     </row>
     <row r="122" spans="7:10">
@@ -4586,10 +4743,10 @@
         <v>60</v>
       </c>
       <c r="I122">
-        <v>0.001639349800348282</v>
+        <v>0.001646677938103676</v>
       </c>
       <c r="J122">
-        <v>87.98</v>
+        <v>87.81999999999999</v>
       </c>
     </row>
     <row r="123" spans="7:10">
@@ -4600,10 +4757,10 @@
         <v>61</v>
       </c>
       <c r="I123">
-        <v>0.0006420569844543933</v>
+        <v>0.0006110557124018669</v>
       </c>
       <c r="J123">
-        <v>96.15000000000001</v>
+        <v>96.41</v>
       </c>
     </row>
     <row r="124" spans="7:10">
@@ -4614,10 +4771,10 @@
         <v>61</v>
       </c>
       <c r="I124">
-        <v>0.001639824804663658</v>
+        <v>0.001646338276565075</v>
       </c>
       <c r="J124">
-        <v>87.94</v>
+        <v>87.84999999999999</v>
       </c>
     </row>
     <row r="125" spans="7:10">
@@ -4628,10 +4785,10 @@
         <v>62</v>
       </c>
       <c r="I125">
-        <v>0.000641827917098999</v>
+        <v>0.0006105230107903481</v>
       </c>
       <c r="J125">
-        <v>96.16</v>
+        <v>96.40000000000001</v>
       </c>
     </row>
     <row r="126" spans="7:10">
@@ -4642,10 +4799,10 @@
         <v>62</v>
       </c>
       <c r="I126">
-        <v>0.00163971034437418</v>
+        <v>0.001646140837669373</v>
       </c>
       <c r="J126">
-        <v>87.95999999999999</v>
+        <v>87.86</v>
       </c>
     </row>
     <row r="127" spans="7:10">
@@ -4656,10 +4813,10 @@
         <v>63</v>
       </c>
       <c r="I127">
-        <v>0.0006415713988244533</v>
+        <v>0.0006101154495030642</v>
       </c>
       <c r="J127">
-        <v>96.16</v>
+        <v>96.40000000000001</v>
       </c>
     </row>
     <row r="128" spans="7:10">
@@ -4670,10 +4827,10 @@
         <v>63</v>
       </c>
       <c r="I128">
-        <v>0.001639575237035751</v>
+        <v>0.001645801922678947</v>
       </c>
       <c r="J128">
-        <v>87.95999999999999</v>
+        <v>87.92</v>
       </c>
     </row>
     <row r="129" spans="7:10">
@@ -4684,10 +4841,10 @@
         <v>64</v>
       </c>
       <c r="I129">
-        <v>0.0006416890162974596</v>
+        <v>0.000609580660238862</v>
       </c>
       <c r="J129">
-        <v>96.18000000000001</v>
+        <v>96.39</v>
       </c>
     </row>
     <row r="130" spans="7:10">
@@ -4698,38 +4855,10 @@
         <v>64</v>
       </c>
       <c r="I130">
-        <v>0.001639438810944557</v>
+        <v>0.001645642530918121</v>
       </c>
       <c r="J130">
-        <v>87.95999999999999</v>
-      </c>
-    </row>
-    <row r="131" spans="7:10">
-      <c r="G131">
-        <v>1</v>
-      </c>
-      <c r="H131">
-        <v>65</v>
-      </c>
-      <c r="I131">
-        <v>0.0006415739648044109</v>
-      </c>
-      <c r="J131">
-        <v>96.2</v>
-      </c>
-    </row>
-    <row r="132" spans="7:10">
-      <c r="G132">
-        <v>2</v>
-      </c>
-      <c r="H132">
-        <v>65</v>
-      </c>
-      <c r="I132">
-        <v>0.001639306829869747</v>
-      </c>
-      <c r="J132">
-        <v>87.95</v>
+        <v>87.93000000000001</v>
       </c>
     </row>
   </sheetData>
